--- a/Dokumentation & planning/DB-Model.xlsx
+++ b/Dokumentation & planning/DB-Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\xampp\htdocs\Pizzaservice\Dokumentation &amp; planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A17075-6C81-4A64-A1D9-5039143617E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B026118-EA34-4DF3-AE9A-E55265A60116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8CF6DC4-126C-4C94-B028-56EC2D4284BC}"/>
+    <workbookView xWindow="27840" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{E8CF6DC4-126C-4C94-B028-56EC2D4284BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>User</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Thunfisch</t>
+  </si>
+  <si>
+    <t>Toppings</t>
+  </si>
+  <si>
+    <t>decimal</t>
   </si>
 </sst>
 </file>
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -246,6 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -269,15 +276,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -292,8 +299,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3857625" y="3867150"/>
-          <a:ext cx="1704975" cy="542925"/>
+          <a:off x="3855720" y="4427220"/>
+          <a:ext cx="373380" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -323,11 +330,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>288725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139900</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1295400" cy="264560"/>
+    <xdr:ext cx="264560" cy="1295400"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Textfeld 14">
@@ -340,8 +347,8 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1054773">
-          <a:off x="4171950" y="3886200"/>
+        <a:xfrm rot="3293637">
+          <a:off x="3583305" y="4495800"/>
           <a:ext cx="1295400" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -498,15 +505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -521,8 +528,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5353050" y="2543175"/>
-          <a:ext cx="1866900" cy="523875"/>
+          <a:off x="5646420" y="2575560"/>
+          <a:ext cx="723900" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -552,9 +559,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>36195</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1295400" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -569,8 +576,8 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="20586197">
-          <a:off x="5734050" y="2838450"/>
+        <a:xfrm rot="19496876">
+          <a:off x="5659755" y="2752725"/>
           <a:ext cx="1295400" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -932,15 +939,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E96A3-1173-415D-9E0A-8CBF3FA8AD99}">
-  <dimension ref="C11:P28"/>
+  <dimension ref="C11:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
@@ -948,15 +956,12 @@
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,37 +969,34 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
@@ -1006,19 +1008,16 @@
         <v>9</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1101,39 +1100,20 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="3" t="s">
+      <c r="F27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
@@ -1146,34 +1126,102 @@
       <c r="F28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P28" s="6" t="s">
+      <c r="G28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Dokumentation & planning/DB-Model.xlsx
+++ b/Dokumentation & planning/DB-Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\xampp\htdocs\Pizzaservice\Dokumentation &amp; planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B026118-EA34-4DF3-AE9A-E55265A60116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D935CEB2-98D9-48CB-AACA-D657A6C9F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27840" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{E8CF6DC4-126C-4C94-B028-56EC2D4284BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8CF6DC4-126C-4C94-B028-56EC2D4284BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>User</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Pizza_ID</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>varchar(1000)</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -140,7 +134,22 @@
     <t>Toppings</t>
   </si>
   <si>
+    <t>DateTime</t>
+  </si>
+  <si>
     <t>decimal</t>
+  </si>
+  <si>
+    <t>Confirmed_Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -244,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -252,8 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -275,32 +283,86 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
+        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9572C397-E6EF-4B08-DE6B-2B73DA5673C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1989BF12-2DFF-4075-B622-B01694AAF68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3855720" y="4427220"/>
-          <a:ext cx="373380" cy="571500"/>
+        <a:xfrm flipV="1">
+          <a:off x="2647950" y="3324225"/>
+          <a:ext cx="0" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Gerade Verbindung mit Pfeil 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3272E61B-7114-4070-B380-D36BA665BD82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6943725" y="2588895"/>
+          <a:ext cx="1003935" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -329,239 +391,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>288725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139900</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1295400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Textfeld 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C729FF-96C8-1F32-8389-FAC6FA8DE2BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="3293637">
-          <a:off x="3583305" y="4495800"/>
-          <a:ext cx="1295400" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>1 Order - N Pizzas</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1989BF12-2DFF-4075-B622-B01694AAF68E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2781300" y="3324225"/>
-          <a:ext cx="9525" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1295400" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Textfeld 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A380975-20F6-48FB-AF8D-470055623036}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2781300" y="3648075"/>
-          <a:ext cx="1295400" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>1 Order</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> - 1 Receipt</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Gerade Verbindung mit Pfeil 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3272E61B-7114-4070-B380-D36BA665BD82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5646420" y="2575560"/>
-          <a:ext cx="723900" cy="487680"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>36195</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>102869</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1295400" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -576,8 +409,8 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19496876">
-          <a:off x="5659755" y="2752725"/>
+        <a:xfrm rot="20024781">
+          <a:off x="6941819" y="2785109"/>
           <a:ext cx="1295400" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -614,6 +447,68 @@
             <a:t> Receipts - 1 User</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1295400" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74CC98C-360D-45E8-8FA2-572075932786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="3600450"/>
+          <a:ext cx="1295400" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>n Pizzas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> - 1 Receipt</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -939,17 +834,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E96A3-1173-415D-9E0A-8CBF3FA8AD99}">
-  <dimension ref="C11:P32"/>
+  <dimension ref="C11:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="6" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
@@ -975,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>4</v>
@@ -1038,191 +931,159 @@
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
+      <c r="G16" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="3" t="s">
+    <row r="29" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation & planning/DB-Model.xlsx
+++ b/Dokumentation & planning/DB-Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\xampp\htdocs\Pizzaservice\Dokumentation &amp; planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D935CEB2-98D9-48CB-AACA-D657A6C9F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36802501-6B13-465B-AFD9-79F48D6CADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8CF6DC4-126C-4C94-B028-56EC2D4284BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>User</t>
   </si>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -837,7 +837,7 @@
   <dimension ref="C11:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +931,7 @@
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -977,7 +977,10 @@
       <c r="G24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -995,7 +998,10 @@
       <c r="G25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Dokumentation & planning/DB-Model.xlsx
+++ b/Dokumentation & planning/DB-Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\xampp\htdocs\Pizzaservice\Dokumentation &amp; planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36802501-6B13-465B-AFD9-79F48D6CADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C45B89D-8246-4ACE-B387-DA15B044D466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8CF6DC4-126C-4C94-B028-56EC2D4284BC}"/>
   </bookViews>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -261,7 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -337,16 +336,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>222885</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -361,8 +360,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6943725" y="2588895"/>
-          <a:ext cx="1003935" cy="449580"/>
+          <a:off x="6010275" y="2588895"/>
+          <a:ext cx="2137410" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -391,10 +390,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102869</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>617219</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>99059</xdr:rowOff>
+      <xdr:rowOff>156209</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1295400" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -409,8 +408,8 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="20024781">
-          <a:off x="6941819" y="2785109"/>
+        <a:xfrm rot="20910677">
+          <a:off x="6579869" y="2842259"/>
           <a:ext cx="1295400" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -836,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E96A3-1173-415D-9E0A-8CBF3FA8AD99}">
   <dimension ref="C11:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +976,7 @@
       <c r="G24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I24" s="3" t="s">
